--- a/dataset/sql_datasets/location.xlsx
+++ b/dataset/sql_datasets/location.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\Trabalho BD\Git\BD907-master.zip\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4B9650-9A7E-4C6F-97D1-940721DC11DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="3195" windowWidth="29295" windowHeight="32700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1092" yWindow="3192" windowWidth="29292" windowHeight="32700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>idLocation</t>
   </si>
@@ -169,14 +168,25 @@
   </si>
   <si>
     <t>International Stadium Yokohama</t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -204,8 +214,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,21 +496,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -521,7 +532,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -532,7 +543,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -543,7 +554,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -554,7 +565,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -565,95 +576,128 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -661,103 +705,137 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -765,87 +843,117 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -853,12 +961,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
+      </c>
+      <c r="C43">
+        <v>72000</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/sql_datasets/location.xlsx
+++ b/dataset/sql_datasets/location.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\Trabalho BD\Git\BD907-master.zip\dataset\sql_datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0E9E4D-6CAF-45AE-A523-0EEB8E4FAA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="3192" windowWidth="29292" windowHeight="32700"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>idLocation</t>
   </si>
@@ -71,9 +72,6 @@
     <t>Tokyo Stadium</t>
   </si>
   <si>
-    <t>Musashinomori Park</t>
-  </si>
-  <si>
     <t>Ariake Arena</t>
   </si>
   <si>
@@ -98,9 +96,6 @@
     <t>Oi Hockey Stadium</t>
   </si>
   <si>
-    <t>Sea Forest Cross-Country</t>
-  </si>
-  <si>
     <t>Sea Forest Waterway</t>
   </si>
   <si>
@@ -119,15 +114,6 @@
     <t>Sapporo Odori Park</t>
   </si>
   <si>
-    <t>Makuhari Messe Hall A</t>
-  </si>
-  <si>
-    <t>Makuhari Messe Hall B</t>
-  </si>
-  <si>
-    <t>Tsurigarasaki Surfing Beach</t>
-  </si>
-  <si>
     <t>Saitama Super Arena</t>
   </si>
   <si>
@@ -170,23 +156,24 @@
     <t>International Stadium Yokohama</t>
   </si>
   <si>
-    <t>**</t>
+    <t>Musashinonomori Park</t>
+  </si>
+  <si>
+    <t>Sea Forest Cross-Country Course</t>
+  </si>
+  <si>
+    <t>Makuhari Messe</t>
+  </si>
+  <si>
+    <t>Tsurigasaki Surfing Beach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -214,9 +201,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,21 +482,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,455 +507,534 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>68000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>7300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>9300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C23">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C24">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C28">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C29">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C30">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>25000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C34">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C36">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>14300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C39">
-        <v>41000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C40">
-        <v>49000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C41">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="C43">
-        <v>72000</v>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/sql_datasets/location.xlsx
+++ b/dataset/sql_datasets/location.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0E9E4D-6CAF-45AE-A523-0EEB8E4FAA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3354589-BFB2-48B1-9900-7A97A5603A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,16 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
-  <si>
-    <t>idLocation</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Olympic Stadium</t>
   </si>
@@ -483,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,543 +488,532 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C1">
+        <v>7100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>7100</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>5600</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>12000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>15000</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>68000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7200</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>7200</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>14300</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>35000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>21000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>12000</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>7300</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>7500</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>12800</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>6600</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C17">
-        <v>5000</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18">
-        <v>11500</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>22000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C20">
-        <v>22000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>3600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C22">
-        <v>9300</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23">
-        <v>16000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>8000</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>68000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>48000</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27">
-        <v>41000</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28">
-        <v>49000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29">
-        <v>40000</v>
+        <v>63700</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30">
-        <v>63700</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C31">
-        <v>72000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>25000</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>10200</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>15000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C35">
-        <v>11000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>5500</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C37">
-        <v>7200</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>16000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C39">
-        <v>48000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C40">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C41">
-        <v>3200</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>7000</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>8400</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>6000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C45">
-        <v>7000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46">
-        <v>10000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>15000</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C48">
-        <v>15000</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50">
         <v>5000</v>
       </c>
     </row>
